--- a/Reports/YTDReport/Mar.xlsx
+++ b/Reports/YTDReport/Mar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\Reports\YTDReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28004478-EB65-4468-8B9C-2BCC9052C573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279D5D5-E0F3-4E02-9FF2-E79CC3F3938E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13320" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="1081">
   <si>
     <t>RMA ID</t>
   </si>
@@ -3318,6 +3318,9 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -3341,7 +3344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3364,11 +3367,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3381,6 +3395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3667,9 +3684,9 @@
   </sheetPr>
   <dimension ref="A1:Y244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y245" sqref="Y245:Y296"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3772,6 +3789,9 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="5" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
